--- a/coauthors.xlsx
+++ b/coauthors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A155"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1083 +436,1846 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Co-author IDs</t>
+          <t>Co-author 1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>57062645000</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>57062645000</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6604069881</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6604069881</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>57224767865</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>57224767865</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15924778900</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>15924778900</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6603536955</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6603536955</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>53984497000</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>53984497000</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>55862150300</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>55862150300</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>57204779310</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>57204779310</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>57207470426</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>57207470426</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>57212062515</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>57212062515</t>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16246088000</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>16246088000</t>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 12</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>35234647000</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>35234647000</t>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>53979981400</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>53979981400</t>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>54409464800</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>54409464800</t>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 15</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>55432866400</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>55432866400</t>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 16</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>55512788100</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>55512788100</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 17</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>55627327200</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>55627327200</t>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 18</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>55673597300</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>55673597300</t>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>55951661000</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>55951661000</t>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>56060998600</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>56060998600</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>56331067900</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>56331067900</t>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>56385148800</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>56385148800</t>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>57190402049</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>57190402049</t>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>57215599158</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>57215599158</t>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>57215609785</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>57215609785</t>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>57215609995</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>57215609995</t>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>57215611982</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>57215611982</t>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 28</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>57218547898</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>57218547898</t>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>57218629162</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>57218629162</t>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>57732413200</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>57732413200</t>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>58207442100</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>58207442100</t>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>13104617000</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>13104617000</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16047047000</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>16047047000</t>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 34</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>16305821100</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>16305821100</t>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 35</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16548876700</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>16548876700</t>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 36</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23098155200</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>23098155200</t>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 37</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>24172264700</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>24172264700</t>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>25641172300</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>25641172300</t>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 39</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>26531707000</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>26531707000</t>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 40</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>26641593200</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>26641593200</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 41</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>35302344100</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>35302344100</t>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 42</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>35461510800</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>35461510800</t>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 43</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>35560042400</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>35560042400</t>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 44</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>36100701200</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>36100701200</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 45</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>36242946600</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>36242946600</t>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 46</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>36573084900</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>36573084900</t>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 47</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>36774239100</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>36774239100</t>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 48</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>46561186900</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>46561186900</t>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 49</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>51666005700</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>51666005700</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 50</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>55094888100</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>55094888100</t>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 51</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>55391497200</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>55391497200</t>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 52</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>55446830100</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>55446830100</t>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 53</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>55497492900</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>55497492900</t>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 54</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>55548688800</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>55548688800</t>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 55</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>55608726200</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>55608726200</t>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 56</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>55943946300</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>55943946300</t>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 57</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>56005952600</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>56005952600</t>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 58</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>56006840900</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>56006840900</t>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 59</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>56009919100</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>56009919100</t>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 60</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>56043319100</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>56043319100</t>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 61</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>56318690700</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>56318690700</t>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 62</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>56414308900</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>56414308900</t>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 63</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>56850317700</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>56850317700</t>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 64</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>56870421600</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>56870421600</t>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 65</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>56914703000</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>56914703000</t>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 66</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>57168776800</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>57168776800</t>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 67</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>57190282301</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>57190282301</t>
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 68</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>57190285887</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>57190285887</t>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 69</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>57190860050</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>57190860050</t>
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 70</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>57191898716</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>57191898716</t>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 71</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>57192379540</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>57192379540</t>
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 72</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>57193450344</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>57193450344</t>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 73</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>57193891727</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>57193891727</t>
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 74</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>57193906628</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>57193906628</t>
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 75</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>57194237105</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>57194237105</t>
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 76</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>57196115970</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>57196115970</t>
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 77</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>57196938204</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>57196938204</t>
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 78</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>57198013546</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>57198013546</t>
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 79</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>57200203284</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>57200203284</t>
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 80</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>57201404518</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>57201404518</t>
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 81</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>57201665560</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>57201665560</t>
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 82</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>57202257466</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>57202257466</t>
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 83</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>57202545002</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>57202545002</t>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 84</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>57204595856</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>57204595856</t>
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 85</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>57207910141</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>57207910141</t>
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 86</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>57207910614</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>57207910614</t>
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 87</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>57207913327</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>57207913327</t>
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 88</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>57207915564</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>57207915564</t>
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 89</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>57207916863</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>57207916863</t>
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 90</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>57208015814</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>57208015814</t>
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 91</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>57208017296</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>57208017296</t>
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 92</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>57208317961</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>57208317961</t>
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 93</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>57208345455</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>57208345455</t>
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 94</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>57208509221</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>57208509221</t>
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 95</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>57211243046</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>57211243046</t>
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 96</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>57211429317</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>57211429317</t>
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 97</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>57211783884</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>57211783884</t>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 98</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>57216603447</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>57216603447</t>
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 99</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>57217330066</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>57217330066</t>
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 100</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>57220116088</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>57220116088</t>
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 101</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>57220954739</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>57220954739</t>
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 102</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>57220957752</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>57220957752</t>
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 103</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>57220959347</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>57220959347</t>
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 104</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>57220959619</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>57220959619</t>
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 105</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>57220960818</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>57220960818</t>
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 106</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>57220963348</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>57220963348</t>
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 107</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>57221807418</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>57221807418</t>
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 108</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>57224698244</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>57224698244</t>
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 109</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>57390877200</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>57390877200</t>
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 110</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>57419410400</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>57419410400</t>
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 111</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>57419936800</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>57419936800</t>
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 112</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>57536365200</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>57536365200</t>
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 113</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>57605167000</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>57605167000</t>
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 114</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>57695554900</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>57695554900</t>
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 115</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>57762964600</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>57762964600</t>
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 116</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>57797050500</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>57797050500</t>
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 117</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>57802389300</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>57802389300</t>
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 118</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>57802621400</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>57802621400</t>
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 119</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>57802733600</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>57802733600</t>
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 120</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>57823024700</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>57823024700</t>
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 121</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>57948468200</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>57948468200</t>
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 122</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>57990973500</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>57990973500</t>
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 123</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>58254618400</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>58254618400</t>
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 124</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>58277240600</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>58277240600</t>
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 125</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>58297884000</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>58297884000</t>
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 126</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>58594523700</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>58594523700</t>
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 127</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>58594625700</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>58594625700</t>
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 128</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>58681047000</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>58681047000</t>
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 129</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>58683431500</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>58683431500</t>
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 130</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>58714007600</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>58714007600</t>
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 131</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>58763396800</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>58763396800</t>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 132</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>58858360800</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>58858360800</t>
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 133</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>58960156300</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>58960156300</t>
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 134</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>58960793300</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>58960793300</t>
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 135</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>58961203500</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>58961203500</t>
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 136</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>58961203600</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>58961203600</t>
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 137</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>6506113583</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>6506113583</t>
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 138</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>6506485480</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>6506485480</t>
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 139</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>6602111859</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>6602111859</t>
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 140</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>6701529233</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>6701529233</t>
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 141</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>6701686697</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>6701686697</t>
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 142</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>7003308935</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>7003308935</t>
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 143</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>7003641127</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>7003641127</t>
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 144</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>7005349140</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>7005349140</t>
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 145</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>7005559422</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>7005559422</t>
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 146</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>7005664290</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>7005664290</t>
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 147</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>7006119375</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>7006119375</t>
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 148</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7006764090</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>7006764090</t>
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 149</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7006950867</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>7006950867</t>
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 150</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>7102537544</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>7102537544</t>
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 151</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7201466215</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>7201466215</t>
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 152</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>7201548302</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>7201548302</t>
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 153</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>7201595484</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>7201595484</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>Co-author 154</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>8593716400</t>
         </is>

--- a/coauthors.xlsx
+++ b/coauthors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:A155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1846 +436,1083 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Co-author 1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
+          <t>Co-author IDs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>57062645000</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>6604069881</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 3</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>57224767865</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 4</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>15924778900</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>6603536955</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 6</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>53984497000</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>55862150300</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>57204779310</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>57207470426</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>57212062515</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>16246088000</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>35234647000</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 13</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>53979981400</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 14</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>54409464800</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 15</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>55432866400</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 16</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>55512788100</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 17</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>55627327200</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 18</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>55673597300</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 19</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>55951661000</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>56060998600</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 21</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>56331067900</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 22</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>56385148800</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 23</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>57190402049</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 24</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>57215599158</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 25</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>57215609785</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 26</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>57215609995</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 27</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>57215611982</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 28</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>57218547898</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 29</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>57218629162</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>57732413200</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 31</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>58207442100</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 32</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>13104617000</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 33</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>16047047000</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 34</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>16305821100</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 35</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>16548876700</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 36</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>23098155200</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 37</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>24172264700</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 38</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>25641172300</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 39</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>26531707000</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 40</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>26641593200</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 41</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>35302344100</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 42</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>35461510800</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 43</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>35560042400</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 44</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>36100701200</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 45</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>36242946600</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 46</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>36573084900</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 47</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>36774239100</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 48</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>46561186900</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 49</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>51666005700</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 50</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>55094888100</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 51</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>55391497200</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 52</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>55446830100</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 53</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>55497492900</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 54</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>55548688800</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 55</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>55608726200</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 56</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>55943946300</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 57</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>56005952600</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 58</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>56006840900</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 59</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>56009919100</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 60</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>56043319100</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 61</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>56318690700</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 62</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>56414308900</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 63</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>56850317700</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 64</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>56870421600</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 65</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>56914703000</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 66</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>57168776800</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 67</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>57190282301</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 68</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>57190285887</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 69</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>57190860050</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 70</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>57191898716</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 71</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>57192379540</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 72</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>57193450344</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 73</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>57193891727</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 74</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>57193906628</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 75</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>57194237105</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 76</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>57196115970</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 77</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>57196938204</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 78</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>57198013546</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 79</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>57200203284</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 80</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>57201404518</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 81</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>57201665560</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 82</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>57202257466</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 83</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>57202545002</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 84</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>57204595856</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 85</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>57207910141</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 86</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>57207910614</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 87</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>57207913327</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 88</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>57207915564</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 89</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>57207916863</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 90</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>57208015814</t>
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 91</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>57208017296</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 92</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>57208317961</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 93</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>57208345455</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 94</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>57208509221</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 95</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>57211243046</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 96</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>57211429317</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 97</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>57211783884</t>
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 98</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>57216603447</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 99</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>57217330066</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 100</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>57220116088</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 101</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>57220954739</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 102</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>57220957752</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 103</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="inlineStr">
         <is>
           <t>57220959347</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 104</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>57220959619</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 105</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>57220960818</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 106</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>57220963348</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 107</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>57221807418</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 108</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
+    <row r="109">
+      <c r="A109" t="inlineStr">
         <is>
           <t>57224698244</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 109</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>57390877200</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 110</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>57419410400</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 111</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>57419936800</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 112</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>57536365200</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 113</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>57605167000</t>
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 114</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>57695554900</t>
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 115</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>57762964600</t>
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 116</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>57797050500</t>
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 117</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>57802389300</t>
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 118</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>57802621400</t>
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 119</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>57802733600</t>
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 120</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>57823024700</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 121</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>57948468200</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 122</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>57990973500</t>
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 123</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>58254618400</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 124</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>58277240600</t>
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 125</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>58297884000</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 126</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>58594523700</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 127</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>58594625700</t>
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 128</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>58681047000</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 129</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>58683431500</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 130</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>58714007600</t>
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 131</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>58763396800</t>
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 132</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>58858360800</t>
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 133</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>58960156300</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 134</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>58960793300</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 135</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>58961203500</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 136</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>58961203600</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 137</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>6506113583</t>
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 138</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>6506485480</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 139</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>6602111859</t>
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 140</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>6701529233</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 141</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>6701686697</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 142</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>7003308935</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 143</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>7003641127</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 144</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>7005349140</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 145</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>7005559422</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 146</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>7005664290</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 147</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>7006119375</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 148</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>7006764090</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 149</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>7006950867</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 150</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>7102537544</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 151</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>7201466215</t>
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 152</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>7201548302</t>
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 153</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>7201595484</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>Co-author 154</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>8593716400</t>
         </is>
